--- a/bytenew_api_autotest/data/lg_admin_update_cases.xlsx
+++ b/bytenew_api_autotest/data/lg_admin_update_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>casename</t>
   </si>
@@ -47,16 +47,28 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>【淘宝】tb3062364902-修改售后单拉取时间</t>
-  </si>
-  <si>
-    <t>https://lg-artifact-admin-pre.bytenew.com/api/seller/updatePullTime</t>
+    <t>杭州云贝-班牛-【淘宝】tb3062364902-修改售后单拉取时间</t>
+  </si>
+  <si>
+    <t>/api/seller/updatePullTime</t>
   </si>
   <si>
     <t>{"companyId":"1896837922267267074","id":"1914273304511733762","sellerId":"1914273297125564418","source":1,"dataName":"refundApply","beginTime":"2025-05-07 18:48:00","endTime":"2025-05-07 18:49:00"}</t>
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>杭州云贝-班牛-【抖音】紫貂的小店-修改售后单拉取时间</t>
+  </si>
+  <si>
+    <t>{"companyId":"1896837922267267074","id":"1896837934250393602","sellerId":"1896837929762488321","source":1,"dataName":"refundApply","beginTime":"2025-05-07 18:48:00","endTime":"2025-05-07 18:49:00"}</t>
+  </si>
+  <si>
+    <t>三青小小号-【抖音】-修改售后单拉取时间</t>
+  </si>
+  <si>
+    <t>{"companyId":"1896075670343610370","id":"1922574260093542402","sellerId":"1922574256859734017","source":1,"dataName":"refundApply","beginTime":"2025-05-07 18:48:00","endTime":"2025-05-07 18:49:00"}</t>
   </si>
 </sst>
 </file>
@@ -90,18 +102,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -560,7 +572,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,13 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,15 +1029,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.7777777777778" style="1" customWidth="1"/>
@@ -1064,23 +1070,54 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="3" ht="86.4" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="86.4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://lg-artifact-admin-pre.bytenew.com/api/seller/updatePullTime" tooltip="https://lg-artifact-admin-pre.bytenew.com/api/seller/updatePullTime"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
